--- a/Workbookcs.xlsx
+++ b/Workbookcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="1520" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -688,6 +688,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -712,7 +718,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,6 +726,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1056,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2749,7 +2758,7 @@
       <c r="A83" s="5"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3784,7 +3793,7 @@
       <c r="A133" s="5"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="7" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4063,7 +4072,6 @@
     <hyperlink ref="B141" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
